--- a/menu.xlsx
+++ b/menu.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29303"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BBA5E15-7437-45CC-A06D-971E0A493DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="48">
   <si>
     <t>nome</t>
   </si>
@@ -28,65 +45,143 @@
     <t>kcal100</t>
   </si>
   <si>
-    <t>Omelete de Queijo</t>
-  </si>
-  <si>
-    <t>Iogurte Natural</t>
-  </si>
-  <si>
-    <t>Frango Grelhado</t>
-  </si>
-  <si>
-    <t>Arroz Integral</t>
-  </si>
-  <si>
-    <t>Salada Verde</t>
-  </si>
-  <si>
-    <t>Maçã</t>
-  </si>
-  <si>
-    <t>Salmão Assado</t>
-  </si>
-  <si>
-    <t>Batata Doce Cozida</t>
-  </si>
-  <si>
-    <t>Brócolis no Vapor</t>
-  </si>
-  <si>
-    <t>Sanduíche de Atum</t>
+    <t>Frango Teriyaki</t>
+  </si>
+  <si>
+    <t>Almoço</t>
+  </si>
+  <si>
+    <t>Proteina</t>
+  </si>
+  <si>
+    <t>Jantar</t>
+  </si>
+  <si>
+    <t>Poke</t>
+  </si>
+  <si>
+    <t>Hamburger de Frango</t>
+  </si>
+  <si>
+    <t>Strogonff de Frango</t>
+  </si>
+  <si>
+    <t>Frango com Brocolis</t>
+  </si>
+  <si>
+    <t>Torta de Frango</t>
+  </si>
+  <si>
+    <t>Frango Crocante</t>
+  </si>
+  <si>
+    <t>Peito de Franco Suculento</t>
+  </si>
+  <si>
+    <t>Almondegas no Molho de Tomate</t>
+  </si>
+  <si>
+    <t>Pastel de Massa de Frango</t>
+  </si>
+  <si>
+    <t>Frango Agridoce</t>
+  </si>
+  <si>
+    <t>Nugget Caseiro Saudável</t>
+  </si>
+  <si>
+    <t>Peito de Frango com Molho Mostarda</t>
+  </si>
+  <si>
+    <t>Peito de Frango com Molho de Limão</t>
+  </si>
+  <si>
+    <t>Croquete de Frango</t>
+  </si>
+  <si>
+    <t>Peito de Frango com Queijo e Tomate</t>
+  </si>
+  <si>
+    <t>Arroz Cozido</t>
+  </si>
+  <si>
+    <t>Carboidrato</t>
+  </si>
+  <si>
+    <t>Macarrao Parafuso Auchan</t>
+  </si>
+  <si>
+    <t>Batata Frita Auchan</t>
+  </si>
+  <si>
+    <t>Batata Noisset Auchan</t>
+  </si>
+  <si>
+    <t>Arroz Sushi</t>
+  </si>
+  <si>
+    <t>Massa Wai Wai de Arroz Fino</t>
+  </si>
+  <si>
+    <t>Pão Rustico Auchan</t>
   </si>
   <si>
     <t>Café da Manhã</t>
   </si>
   <si>
+    <t>Couscuz de Milho Auchan</t>
+  </si>
+  <si>
+    <t>Pão Rustico Multicereais Auchan</t>
+  </si>
+  <si>
+    <t>Ovo Cozido</t>
+  </si>
+  <si>
+    <t>Ovo Estrelado</t>
+  </si>
+  <si>
+    <t>Ovo Mexido</t>
+  </si>
+  <si>
+    <t>Fatia Presunto</t>
+  </si>
+  <si>
+    <t>Queijo Mussarela</t>
+  </si>
+  <si>
     <t>Lanche Manhã</t>
   </si>
   <si>
-    <t>Almoço</t>
+    <t>Presunto de Peru</t>
+  </si>
+  <si>
+    <t>Morango</t>
+  </si>
+  <si>
+    <t>Melão</t>
+  </si>
+  <si>
+    <t>Uva</t>
   </si>
   <si>
     <t>Lanche Tarde</t>
   </si>
   <si>
-    <t>Jantar</t>
-  </si>
-  <si>
-    <t>Proteina</t>
-  </si>
-  <si>
-    <t>Carboidrato</t>
-  </si>
-  <si>
-    <t>Verduras</t>
+    <t>Melancia</t>
+  </si>
+  <si>
+    <t>Ameixa</t>
+  </si>
+  <si>
+    <t>Pao de Queijo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +191,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,24 +241,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,7 +305,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -227,6 +339,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -261,9 +374,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,12 +550,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -462,7 +582,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2">
         <v>180</v>
@@ -470,55 +593,58 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>124</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -526,10 +652,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -537,52 +666,798 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>86</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="D11">
-        <v>195</v>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/menu.xlsx
+++ b/menu.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BBA5E15-7437-45CC-A06D-971E0A493DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CB36803-25B9-48FF-8E1B-43170270CE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="51">
   <si>
     <t>nome</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>Pao de Queijo</t>
+  </si>
+  <si>
+    <t>Iogurte Grego</t>
+  </si>
+  <si>
+    <t>Crackers Pingo Doce</t>
+  </si>
+  <si>
+    <t>Crackers Mercadona</t>
   </si>
 </sst>
 </file>
@@ -551,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -746,7 +755,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1458,6 +1467,105 @@
       </c>
       <c r="D69">
         <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/menu.xlsx
+++ b/menu.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CB36803-25B9-48FF-8E1B-43170270CE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF32911-3FD1-4F51-8A8A-E9E3C3244E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="63">
   <si>
     <t>nome</t>
   </si>
@@ -66,9 +71,6 @@
     <t>Strogonff de Frango</t>
   </si>
   <si>
-    <t>Frango com Brocolis</t>
-  </si>
-  <si>
     <t>Torta de Frango</t>
   </si>
   <si>
@@ -144,9 +146,6 @@
     <t>Ovo Mexido</t>
   </si>
   <si>
-    <t>Fatia Presunto</t>
-  </si>
-  <si>
     <t>Queijo Mussarela</t>
   </si>
   <si>
@@ -159,9 +158,6 @@
     <t>Morango</t>
   </si>
   <si>
-    <t>Melão</t>
-  </si>
-  <si>
     <t>Uva</t>
   </si>
   <si>
@@ -184,13 +180,58 @@
   </si>
   <si>
     <t>Crackers Mercadona</t>
+  </si>
+  <si>
+    <t>Atum Continente em Azeite</t>
+  </si>
+  <si>
+    <t>Verduras</t>
+  </si>
+  <si>
+    <t>Atum Continente em Oleo</t>
+  </si>
+  <si>
+    <t>Alface</t>
+  </si>
+  <si>
+    <t>Iogurte Grego com Limão Auchan</t>
+  </si>
+  <si>
+    <t>Salada de Alface e Atum com molho Cesar</t>
+  </si>
+  <si>
+    <t>Batata Palha Continente</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Geleia de Morango Auchan (-30% de Acucares)</t>
+  </si>
+  <si>
+    <t>Chips de Banana Auchan</t>
+  </si>
+  <si>
+    <t>Melao</t>
+  </si>
+  <si>
+    <t>Frango com Molho de Brocolis</t>
+  </si>
+  <si>
+    <t>Pizza de Mussarella</t>
+  </si>
+  <si>
+    <t>Pizza de Presunto com Milho</t>
+  </si>
+  <si>
+    <t>Filetes de Pescada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,19 +601,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -600,7 +642,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -614,7 +656,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -628,7 +670,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -642,7 +684,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -656,7 +698,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -670,7 +712,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -684,7 +726,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -698,9 +740,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -712,9 +754,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -726,9 +768,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -740,9 +782,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -754,9 +796,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -768,9 +810,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -782,9 +824,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -796,9 +838,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -810,9 +852,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -824,9 +866,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -838,9 +880,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -852,9 +894,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -866,9 +908,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -880,9 +922,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -894,9 +936,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -908,9 +950,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -922,9 +964,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -936,9 +978,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -950,9 +992,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -964,9 +1006,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -978,9 +1020,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -992,9 +1034,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1006,9 +1048,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -1020,9 +1062,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -1034,538 +1076,899 @@
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
         <v>23</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>24</v>
       </c>
       <c r="D34">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
         <v>23</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>24</v>
       </c>
       <c r="D35">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36">
         <v>367</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37">
         <v>367</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40">
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43">
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44">
         <v>367</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45">
         <v>367</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46">
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47">
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48">
         <v>277</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49">
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50">
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D51">
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53">
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D54">
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D55">
         <v>277</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D56">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D57">
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D58">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D59">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D61">
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D62">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D65">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D67">
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D68">
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D69">
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D70">
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D71">
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D72">
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D73">
         <v>437</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D74">
         <v>437</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D75">
         <v>437</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D76">
         <v>443</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D77">
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D78">
         <v>443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>57</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>57</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>57</v>
+      </c>
+      <c r="B103" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>60</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>61</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
